--- a/Example/bin/Debug/Test1.xlsx
+++ b/Example/bin/Debug/Test1.xlsx
@@ -1351,7 +1351,6 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -2303,7 +2302,6 @@
       <c r="B92" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
@@ -2728,7 +2726,6 @@
       <c r="B131" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
@@ -2781,7 +2778,6 @@
       <c r="B136" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
@@ -3074,7 +3070,6 @@
       <c r="B163" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
@@ -3169,7 +3164,6 @@
       <c r="B172" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
@@ -3564,7 +3558,6 @@
       <c r="B209" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
@@ -3967,7 +3960,6 @@
         <v>1</v>
       </c>
       <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
@@ -4426,7 +4418,6 @@
       <c r="B297" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C297" s="1"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
@@ -4444,7 +4435,6 @@
       <c r="B299" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C299" s="1"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">

--- a/Example/bin/Debug/Test1.xlsx
+++ b/Example/bin/Debug/Test1.xlsx
@@ -1012,7 +1012,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1020,29 +1020,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1361,10 +1345,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2312,10 +2296,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2736,10 +2720,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2788,10 +2772,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3080,10 +3064,10 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3174,10 +3158,10 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3568,10 +3552,10 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3972,10 +3956,10 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B246" s="2"/>
+      <c r="B246" s="1"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
@@ -4428,10 +4412,10 @@
       <c r="C296" s="1"/>
     </row>
     <row r="297">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="1" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4445,10 +4429,10 @@
       <c r="C298" s="1"/>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="1" t="s">
         <v>316</v>
       </c>
     </row>
